--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1248.794048300011</v>
+        <v>1610.866839046558</v>
       </c>
       <c r="AB2" t="n">
-        <v>1708.655109789224</v>
+        <v>2204.059075612822</v>
       </c>
       <c r="AC2" t="n">
-        <v>1545.583464223448</v>
+        <v>1993.706770852674</v>
       </c>
       <c r="AD2" t="n">
-        <v>1248794.048300011</v>
+        <v>1610866.839046557</v>
       </c>
       <c r="AE2" t="n">
-        <v>1708655.109789224</v>
+        <v>2204059.075612822</v>
       </c>
       <c r="AF2" t="n">
         <v>2.214302446551066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1545583.464223448</v>
+        <v>1993706.770852674</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>922.3473284014052</v>
+        <v>1196.324438744674</v>
       </c>
       <c r="AB3" t="n">
-        <v>1261.996305811099</v>
+        <v>1636.863875199808</v>
       </c>
       <c r="AC3" t="n">
-        <v>1141.553149607427</v>
+        <v>1480.643884303615</v>
       </c>
       <c r="AD3" t="n">
-        <v>922347.3284014052</v>
+        <v>1196324.438744674</v>
       </c>
       <c r="AE3" t="n">
-        <v>1261996.305811099</v>
+        <v>1636863.875199808</v>
       </c>
       <c r="AF3" t="n">
         <v>2.838152327450632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1141553.149607427</v>
+        <v>1480643.884303615</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>821.7854423018528</v>
+        <v>1076.252829912129</v>
       </c>
       <c r="AB4" t="n">
-        <v>1124.403096772388</v>
+        <v>1472.576602809595</v>
       </c>
       <c r="AC4" t="n">
-        <v>1017.091643326088</v>
+        <v>1332.03595861169</v>
       </c>
       <c r="AD4" t="n">
-        <v>821785.4423018527</v>
+        <v>1076252.829912129</v>
       </c>
       <c r="AE4" t="n">
-        <v>1124403.096772388</v>
+        <v>1472576.602809595</v>
       </c>
       <c r="AF4" t="n">
         <v>3.09068164838283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1017091.643326088</v>
+        <v>1332035.95861169</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>776.5613642924508</v>
+        <v>1021.240230632379</v>
       </c>
       <c r="AB5" t="n">
-        <v>1062.525518094413</v>
+        <v>1397.305937490449</v>
       </c>
       <c r="AC5" t="n">
-        <v>961.1195739114117</v>
+        <v>1263.94901994756</v>
       </c>
       <c r="AD5" t="n">
-        <v>776561.3642924508</v>
+        <v>1021240.230632379</v>
       </c>
       <c r="AE5" t="n">
-        <v>1062525.518094413</v>
+        <v>1397305.937490449</v>
       </c>
       <c r="AF5" t="n">
         <v>3.216223074516904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>961119.5739114118</v>
+        <v>1263949.01994756</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>747.9493555501168</v>
+        <v>992.5940564712643</v>
       </c>
       <c r="AB6" t="n">
-        <v>1023.377305460412</v>
+        <v>1358.110978223201</v>
       </c>
       <c r="AC6" t="n">
-        <v>925.7076117463389</v>
+        <v>1228.494772582307</v>
       </c>
       <c r="AD6" t="n">
-        <v>747949.3555501169</v>
+        <v>992594.0564712642</v>
       </c>
       <c r="AE6" t="n">
-        <v>1023377.305460412</v>
+        <v>1358110.978223201</v>
       </c>
       <c r="AF6" t="n">
         <v>3.295959659622703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.63020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>925707.6117463389</v>
+        <v>1228494.772582307</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>723.1876595979514</v>
+        <v>958.078004667531</v>
       </c>
       <c r="AB7" t="n">
-        <v>989.4972606497325</v>
+        <v>1310.884593404598</v>
       </c>
       <c r="AC7" t="n">
-        <v>895.0610308614488</v>
+        <v>1185.775607648144</v>
       </c>
       <c r="AD7" t="n">
-        <v>723187.6595979515</v>
+        <v>958078.004667531</v>
       </c>
       <c r="AE7" t="n">
-        <v>989497.2606497325</v>
+        <v>1310884.593404598</v>
       </c>
       <c r="AF7" t="n">
         <v>3.354903257682772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.77083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>895061.0308614487</v>
+        <v>1185775.607648144</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>714.2298564030081</v>
+        <v>949.0187162461025</v>
       </c>
       <c r="AB8" t="n">
-        <v>977.2407991280252</v>
+        <v>1298.489275318801</v>
       </c>
       <c r="AC8" t="n">
-        <v>883.9743088253215</v>
+        <v>1174.563281323518</v>
       </c>
       <c r="AD8" t="n">
-        <v>714229.8564030081</v>
+        <v>949018.7162461025</v>
       </c>
       <c r="AE8" t="n">
-        <v>977240.7991280252</v>
+        <v>1298489.275318801</v>
       </c>
       <c r="AF8" t="n">
         <v>3.387147454985571e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>883974.3088253215</v>
+        <v>1174563.281323518</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>714.5593996537597</v>
+        <v>949.3482594968541</v>
       </c>
       <c r="AB9" t="n">
-        <v>977.6916947421257</v>
+        <v>1298.940170932902</v>
       </c>
       <c r="AC9" t="n">
-        <v>884.3821715948482</v>
+        <v>1174.971144093045</v>
       </c>
       <c r="AD9" t="n">
-        <v>714559.3996537597</v>
+        <v>949348.2594968542</v>
       </c>
       <c r="AE9" t="n">
-        <v>977691.6947421257</v>
+        <v>1298940.170932902</v>
       </c>
       <c r="AF9" t="n">
         <v>3.38371209190845e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.38020833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>884382.1715948482</v>
+        <v>1174971.144093045</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1044.17068319931</v>
+        <v>1363.458989088831</v>
       </c>
       <c r="AB2" t="n">
-        <v>1428.680394312696</v>
+        <v>1865.544740436654</v>
       </c>
       <c r="AC2" t="n">
-        <v>1292.329142645019</v>
+        <v>1687.499768717866</v>
       </c>
       <c r="AD2" t="n">
-        <v>1044170.68319931</v>
+        <v>1363458.989088831</v>
       </c>
       <c r="AE2" t="n">
-        <v>1428680.394312696</v>
+        <v>1865544.740436654</v>
       </c>
       <c r="AF2" t="n">
         <v>2.707477285391434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1292329.142645019</v>
+        <v>1687499.768717866</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.7977856445908</v>
+        <v>1068.104281859948</v>
       </c>
       <c r="AB3" t="n">
-        <v>1103.896323725176</v>
+        <v>1461.427399876033</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.5420079170655</v>
+        <v>1321.950819958102</v>
       </c>
       <c r="AD3" t="n">
-        <v>806797.7856445909</v>
+        <v>1068104.281859948</v>
       </c>
       <c r="AE3" t="n">
-        <v>1103896.323725176</v>
+        <v>1461427.399876033</v>
       </c>
       <c r="AF3" t="n">
         <v>3.310948754570531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>998542.0079170654</v>
+        <v>1321950.819958102</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>737.4038289551065</v>
+        <v>979.2819070625435</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.94845073732</v>
+        <v>1339.896708111607</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.6558266669942</v>
+        <v>1212.018846846275</v>
       </c>
       <c r="AD4" t="n">
-        <v>737403.8289551066</v>
+        <v>979281.9070625434</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008948.45073732</v>
+        <v>1339896.708111607</v>
       </c>
       <c r="AF4" t="n">
         <v>3.548222314411684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.41145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>912655.8266669943</v>
+        <v>1212018.846846275</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>694.1761499467119</v>
+        <v>926.4751641305259</v>
       </c>
       <c r="AB5" t="n">
-        <v>949.8024332474314</v>
+        <v>1267.644192762942</v>
       </c>
       <c r="AC5" t="n">
-        <v>859.1546220743833</v>
+        <v>1146.662010155444</v>
       </c>
       <c r="AD5" t="n">
-        <v>694176.149946712</v>
+        <v>926475.1641305259</v>
       </c>
       <c r="AE5" t="n">
-        <v>949802.4332474314</v>
+        <v>1267644.192762942</v>
       </c>
       <c r="AF5" t="n">
         <v>3.672926122543874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.74479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>859154.6220743833</v>
+        <v>1146662.010155444</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>682.9314165320121</v>
+        <v>905.5167271767943</v>
       </c>
       <c r="AB6" t="n">
-        <v>934.4168929068127</v>
+        <v>1238.967934701865</v>
       </c>
       <c r="AC6" t="n">
-        <v>845.2374561101318</v>
+        <v>1120.722573916335</v>
       </c>
       <c r="AD6" t="n">
-        <v>682931.4165320122</v>
+        <v>905516.7271767943</v>
       </c>
       <c r="AE6" t="n">
-        <v>934416.8929068127</v>
+        <v>1238967.934701865</v>
       </c>
       <c r="AF6" t="n">
         <v>3.722121807825002e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>845237.4561101318</v>
+        <v>1120722.573916336</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>682.839332546381</v>
+        <v>905.4246431911632</v>
       </c>
       <c r="AB7" t="n">
-        <v>934.2908995352136</v>
+        <v>1238.841941330265</v>
       </c>
       <c r="AC7" t="n">
-        <v>845.1234873690852</v>
+        <v>1120.608605175289</v>
       </c>
       <c r="AD7" t="n">
-        <v>682839.332546381</v>
+        <v>905424.6431911632</v>
       </c>
       <c r="AE7" t="n">
-        <v>934290.8995352136</v>
+        <v>1238841.941330265</v>
       </c>
       <c r="AF7" t="n">
         <v>3.720011537142702e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>845123.4873690852</v>
+        <v>1120608.605175289</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.9162307473216</v>
+        <v>903.0904251426496</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.9265003578626</v>
+        <v>1235.648161217856</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.7524624290101</v>
+        <v>1117.71963495431</v>
       </c>
       <c r="AD2" t="n">
-        <v>659916.2307473216</v>
+        <v>903090.4251426496</v>
       </c>
       <c r="AE2" t="n">
-        <v>902926.5003578626</v>
+        <v>1235648.161217856</v>
       </c>
       <c r="AF2" t="n">
         <v>4.836202621717968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.55729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>816752.4624290101</v>
+        <v>1117719.63495431</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.4378611616066</v>
+        <v>829.9352574962622</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.3867916746459</v>
+        <v>1135.55403346585</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.3267189253812</v>
+        <v>1027.178350271964</v>
       </c>
       <c r="AD3" t="n">
-        <v>605437.8611616066</v>
+        <v>829935.2574962622</v>
       </c>
       <c r="AE3" t="n">
-        <v>828386.7916746459</v>
+        <v>1135554.03346585</v>
       </c>
       <c r="AF3" t="n">
         <v>5.123202864852217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>749326.7189253812</v>
+        <v>1027178.350271964</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>777.5362993915899</v>
+        <v>1042.979932151437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1063.859467308155</v>
+        <v>1427.051156196767</v>
       </c>
       <c r="AC2" t="n">
-        <v>962.3262128844046</v>
+        <v>1290.855396728224</v>
       </c>
       <c r="AD2" t="n">
-        <v>777536.2993915898</v>
+        <v>1042979.932151437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1063859.467308155</v>
+        <v>1427051.156196767</v>
       </c>
       <c r="AF2" t="n">
         <v>3.851603706903402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>962326.2128844047</v>
+        <v>1290855.396728224</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.1797244982724</v>
+        <v>881.6599223552805</v>
       </c>
       <c r="AB3" t="n">
-        <v>895.0775594311191</v>
+        <v>1206.326001857122</v>
       </c>
       <c r="AC3" t="n">
-        <v>809.652613408257</v>
+        <v>1091.195941329054</v>
       </c>
       <c r="AD3" t="n">
-        <v>654179.7244982724</v>
+        <v>881659.9223552805</v>
       </c>
       <c r="AE3" t="n">
-        <v>895077.5594311191</v>
+        <v>1206326.001857121</v>
       </c>
       <c r="AF3" t="n">
         <v>4.404725214430517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.13541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>809652.613408257</v>
+        <v>1091195.941329054</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>633.4130616281094</v>
+        <v>851.4448547754193</v>
       </c>
       <c r="AB4" t="n">
-        <v>866.6636951316557</v>
+        <v>1164.984413399652</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.9505284384254</v>
+        <v>1053.799936050682</v>
       </c>
       <c r="AD4" t="n">
-        <v>633413.0616281094</v>
+        <v>851444.8547754193</v>
       </c>
       <c r="AE4" t="n">
-        <v>866663.6951316557</v>
+        <v>1164984.413399652</v>
       </c>
       <c r="AF4" t="n">
         <v>4.497509972286341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>783950.5284384254</v>
+        <v>1053799.936050682</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.0149652402566</v>
+        <v>826.2277141821245</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.1257256493398</v>
+        <v>1130.481209138179</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.4267090259983</v>
+        <v>1022.589669178373</v>
       </c>
       <c r="AD2" t="n">
-        <v>595014.9652402566</v>
+        <v>826227.7141821245</v>
       </c>
       <c r="AE2" t="n">
-        <v>814125.7256493397</v>
+        <v>1130481.209138179</v>
       </c>
       <c r="AF2" t="n">
         <v>5.725498934143121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>736426.7090259984</v>
+        <v>1022589.669178373</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.340871801056</v>
+        <v>826.5536207429238</v>
       </c>
       <c r="AB3" t="n">
-        <v>814.5716453838081</v>
+        <v>1130.927128872647</v>
       </c>
       <c r="AC3" t="n">
-        <v>736.8300708068614</v>
+        <v>1022.993030959236</v>
       </c>
       <c r="AD3" t="n">
-        <v>595340.871801056</v>
+        <v>826553.6207429238</v>
       </c>
       <c r="AE3" t="n">
-        <v>814571.6453838081</v>
+        <v>1130927.128872647</v>
       </c>
       <c r="AF3" t="n">
         <v>5.735936151394357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>736830.0708068614</v>
+        <v>1022993.030959236</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1096.320604067509</v>
+        <v>1416.613765902307</v>
       </c>
       <c r="AB2" t="n">
-        <v>1500.034216736699</v>
+        <v>1938.2734510961</v>
       </c>
       <c r="AC2" t="n">
-        <v>1356.873056402593</v>
+        <v>1753.287353307362</v>
       </c>
       <c r="AD2" t="n">
-        <v>1096320.604067509</v>
+        <v>1416613.765902307</v>
       </c>
       <c r="AE2" t="n">
-        <v>1500034.216736699</v>
+        <v>1938273.4510961</v>
       </c>
       <c r="AF2" t="n">
         <v>2.568323131363608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1356873.056402593</v>
+        <v>1753287.353307362</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.6064933184506</v>
+        <v>1096.713402767993</v>
       </c>
       <c r="AB3" t="n">
-        <v>1141.945424398148</v>
+        <v>1500.571661247756</v>
       </c>
       <c r="AC3" t="n">
-        <v>1032.959755824057</v>
+        <v>1357.359207963824</v>
       </c>
       <c r="AD3" t="n">
-        <v>834606.4933184506</v>
+        <v>1096713.402767993</v>
       </c>
       <c r="AE3" t="n">
-        <v>1141945.424398148</v>
+        <v>1500571.661247756</v>
       </c>
       <c r="AF3" t="n">
         <v>3.181477298129643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.68229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1032959.755824057</v>
+        <v>1357359.207963824</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>753.6893176213089</v>
+        <v>1006.018967534462</v>
       </c>
       <c r="AB4" t="n">
-        <v>1031.230974795472</v>
+        <v>1376.479533805145</v>
       </c>
       <c r="AC4" t="n">
-        <v>932.8117379027544</v>
+        <v>1245.110258999941</v>
       </c>
       <c r="AD4" t="n">
-        <v>753689.3176213088</v>
+        <v>1006018.967534462</v>
       </c>
       <c r="AE4" t="n">
-        <v>1031230.974795472</v>
+        <v>1376479.533805145</v>
       </c>
       <c r="AF4" t="n">
         <v>3.420805630014916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>932811.7379027545</v>
+        <v>1245110.258999941</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>720.2408508498161</v>
+        <v>953.1536543951732</v>
       </c>
       <c r="AB5" t="n">
-        <v>985.4653069165067</v>
+        <v>1304.146880114956</v>
       </c>
       <c r="AC5" t="n">
-        <v>891.4138811336397</v>
+        <v>1179.680932258426</v>
       </c>
       <c r="AD5" t="n">
-        <v>720240.8508498161</v>
+        <v>953153.6543951733</v>
       </c>
       <c r="AE5" t="n">
-        <v>985465.3069165067</v>
+        <v>1304146.880114956</v>
       </c>
       <c r="AF5" t="n">
         <v>3.543912674622748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>891413.8811336397</v>
+        <v>1179680.932258426</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>693.3376144880197</v>
+        <v>926.2162526145962</v>
       </c>
       <c r="AB6" t="n">
-        <v>948.655112039275</v>
+        <v>1267.289938604477</v>
       </c>
       <c r="AC6" t="n">
-        <v>858.116799592058</v>
+        <v>1146.341565516665</v>
       </c>
       <c r="AD6" t="n">
-        <v>693337.6144880196</v>
+        <v>926216.2526145962</v>
       </c>
       <c r="AE6" t="n">
-        <v>948655.112039275</v>
+        <v>1267289.938604477</v>
       </c>
       <c r="AF6" t="n">
         <v>3.616824478878198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>858116.7995920579</v>
+        <v>1146341.565516665</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>689.9187708549624</v>
+        <v>913.1568111202736</v>
       </c>
       <c r="AB7" t="n">
-        <v>943.97729935179</v>
+        <v>1249.421434610048</v>
       </c>
       <c r="AC7" t="n">
-        <v>853.8854307821151</v>
+        <v>1130.178406464861</v>
       </c>
       <c r="AD7" t="n">
-        <v>689918.7708549624</v>
+        <v>913156.8111202735</v>
       </c>
       <c r="AE7" t="n">
-        <v>943977.29935179</v>
+        <v>1249421.434610048</v>
       </c>
       <c r="AF7" t="n">
         <v>3.62750705567114e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.19791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>853885.4307821151</v>
+        <v>1130178.406464861</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>691.3534568950936</v>
+        <v>924.23209502167</v>
       </c>
       <c r="AB8" t="n">
-        <v>945.9403000857784</v>
+        <v>1264.57512665098</v>
       </c>
       <c r="AC8" t="n">
-        <v>855.6610854811405</v>
+        <v>1143.885851405747</v>
       </c>
       <c r="AD8" t="n">
-        <v>691353.4568950935</v>
+        <v>924232.09502167</v>
       </c>
       <c r="AE8" t="n">
-        <v>945940.3000857783</v>
+        <v>1264575.12665098</v>
       </c>
       <c r="AF8" t="n">
         <v>3.625512116631495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.22395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>855661.0854811405</v>
+        <v>1143885.851405747</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.7255844843138</v>
+        <v>830.5505656693124</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.6250497818215</v>
+        <v>1136.395925253698</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.3555713465379</v>
+        <v>1027.939893089182</v>
       </c>
       <c r="AD2" t="n">
-        <v>591725.5844843138</v>
+        <v>830550.5656693124</v>
       </c>
       <c r="AE2" t="n">
-        <v>809625.0497818216</v>
+        <v>1136395.925253698</v>
       </c>
       <c r="AF2" t="n">
         <v>6.147086842411948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.88020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>732355.5713465379</v>
+        <v>1027939.893089182</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.2935549464203</v>
+        <v>1194.811217808945</v>
       </c>
       <c r="AB2" t="n">
-        <v>1241.399068844375</v>
+        <v>1634.793419556949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.921684028403</v>
+        <v>1478.771030041408</v>
       </c>
       <c r="AD2" t="n">
-        <v>907293.5549464202</v>
+        <v>1194811.217808946</v>
       </c>
       <c r="AE2" t="n">
-        <v>1241399.068844375</v>
+        <v>1634793.419556949</v>
       </c>
       <c r="AF2" t="n">
         <v>3.192761539144186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122921.684028403</v>
+        <v>1478771.030041408</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>730.7707734792181</v>
+        <v>970.380382842559</v>
       </c>
       <c r="AB3" t="n">
-        <v>999.8728116054547</v>
+        <v>1327.717249966291</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.4463537961343</v>
+        <v>1201.001779092371</v>
       </c>
       <c r="AD3" t="n">
-        <v>730770.773479218</v>
+        <v>970380.382842559</v>
       </c>
       <c r="AE3" t="n">
-        <v>999872.8116054547</v>
+        <v>1327717.249966291</v>
       </c>
       <c r="AF3" t="n">
         <v>3.780688588205235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>904446.3537961344</v>
+        <v>1201001.779092371</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.3732034048518</v>
+        <v>897.4616887923041</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.1294593263108</v>
+        <v>1227.946675820992</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.9816653134524</v>
+        <v>1110.753168514619</v>
       </c>
       <c r="AD4" t="n">
-        <v>667373.2034048517</v>
+        <v>897461.6887923041</v>
       </c>
       <c r="AE4" t="n">
-        <v>913129.4593263108</v>
+        <v>1227946.675820992</v>
       </c>
       <c r="AF4" t="n">
         <v>4.000471050136216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>825981.6653134524</v>
+        <v>1110753.168514619</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>658.6184943208644</v>
+        <v>879.0853815358003</v>
       </c>
       <c r="AB5" t="n">
-        <v>901.1508801270934</v>
+        <v>1202.803401527183</v>
       </c>
       <c r="AC5" t="n">
-        <v>815.1463049009668</v>
+        <v>1088.009533030605</v>
       </c>
       <c r="AD5" t="n">
-        <v>658618.4943208644</v>
+        <v>879085.3815358003</v>
       </c>
       <c r="AE5" t="n">
-        <v>901150.8801270934</v>
+        <v>1202803.401527184</v>
       </c>
       <c r="AF5" t="n">
         <v>4.053247523865809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.06770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>815146.3049009668</v>
+        <v>1088009.533030605</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>659.4501086044182</v>
+        <v>879.9169958193539</v>
       </c>
       <c r="AB6" t="n">
-        <v>902.2887314780846</v>
+        <v>1203.941252878175</v>
       </c>
       <c r="AC6" t="n">
-        <v>816.1755613160037</v>
+        <v>1089.038789445642</v>
       </c>
       <c r="AD6" t="n">
-        <v>659450.1086044182</v>
+        <v>879916.995819354</v>
       </c>
       <c r="AE6" t="n">
-        <v>902288.7314780846</v>
+        <v>1203941.252878175</v>
       </c>
       <c r="AF6" t="n">
         <v>4.04851485094984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.11979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>816175.5613160037</v>
+        <v>1089038.789445642</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>995.3358111610236</v>
+        <v>1304.10237419322</v>
       </c>
       <c r="AB2" t="n">
-        <v>1361.86236794741</v>
+        <v>1784.330401307443</v>
       </c>
       <c r="AC2" t="n">
-        <v>1231.888134936347</v>
+        <v>1614.036412130107</v>
       </c>
       <c r="AD2" t="n">
-        <v>995335.8111610236</v>
+        <v>1304102.37419322</v>
       </c>
       <c r="AE2" t="n">
-        <v>1361862.36794741</v>
+        <v>1784330.401307443</v>
       </c>
       <c r="AF2" t="n">
         <v>2.852324384242119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1231888.134936347</v>
+        <v>1614036.412130107</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>787.7472486708444</v>
+        <v>1038.574114713538</v>
       </c>
       <c r="AB3" t="n">
-        <v>1077.830538587321</v>
+        <v>1421.022922407285</v>
       </c>
       <c r="AC3" t="n">
-        <v>974.9639047292081</v>
+        <v>1285.402489110931</v>
       </c>
       <c r="AD3" t="n">
-        <v>787747.2486708445</v>
+        <v>1038574.114713538</v>
       </c>
       <c r="AE3" t="n">
-        <v>1077830.538587321</v>
+        <v>1421022.922407286</v>
       </c>
       <c r="AF3" t="n">
         <v>3.453978627177223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>974963.9047292081</v>
+        <v>1285402.489110931</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>711.2579877092653</v>
+        <v>952.4669177074525</v>
       </c>
       <c r="AB4" t="n">
-        <v>973.1745572716526</v>
+        <v>1303.207256682132</v>
       </c>
       <c r="AC4" t="n">
-        <v>880.2961433847148</v>
+        <v>1178.830985167261</v>
       </c>
       <c r="AD4" t="n">
-        <v>711257.9877092653</v>
+        <v>952466.9177074524</v>
       </c>
       <c r="AE4" t="n">
-        <v>973174.5572716526</v>
+        <v>1303207.256682132</v>
       </c>
       <c r="AF4" t="n">
         <v>3.685191462576741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>880296.1433847148</v>
+        <v>1178830.985167261</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.3408259532605</v>
+        <v>911.8313457103131</v>
       </c>
       <c r="AB5" t="n">
-        <v>930.8723325881746</v>
+        <v>1247.607874360733</v>
       </c>
       <c r="AC5" t="n">
-        <v>842.0311836534827</v>
+        <v>1128.537929860393</v>
       </c>
       <c r="AD5" t="n">
-        <v>680340.8259532605</v>
+        <v>911831.3457103132</v>
       </c>
       <c r="AE5" t="n">
-        <v>930872.3325881746</v>
+        <v>1247607.874360733</v>
       </c>
       <c r="AF5" t="n">
         <v>3.798293525794713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>842031.1836534827</v>
+        <v>1128537.929860394</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.0526470699924</v>
+        <v>895.9604072311768</v>
       </c>
       <c r="AB6" t="n">
-        <v>922.2685688252136</v>
+        <v>1225.892556157189</v>
       </c>
       <c r="AC6" t="n">
-        <v>834.2485510286004</v>
+        <v>1108.895091148555</v>
       </c>
       <c r="AD6" t="n">
-        <v>674052.6470699924</v>
+        <v>895960.4072311767</v>
       </c>
       <c r="AE6" t="n">
-        <v>922268.5688252136</v>
+        <v>1225892.556157189</v>
       </c>
       <c r="AF6" t="n">
         <v>3.827668927013505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.04166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>834248.5510286004</v>
+        <v>1108895.091148555</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>675.1911947782021</v>
+        <v>897.0989549393863</v>
       </c>
       <c r="AB7" t="n">
-        <v>923.8263800287659</v>
+        <v>1227.450367360741</v>
       </c>
       <c r="AC7" t="n">
-        <v>835.6576869172875</v>
+        <v>1110.304227037242</v>
       </c>
       <c r="AD7" t="n">
-        <v>675191.1947782021</v>
+        <v>897098.9549393863</v>
       </c>
       <c r="AE7" t="n">
-        <v>923826.3800287659</v>
+        <v>1227450.367360741</v>
       </c>
       <c r="AF7" t="n">
         <v>3.825435313556775e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.06770833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>835657.6869172875</v>
+        <v>1110304.227037242</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1192.189897899111</v>
+        <v>1543.549460806532</v>
       </c>
       <c r="AB2" t="n">
-        <v>1631.206814011841</v>
+        <v>2111.952468871691</v>
       </c>
       <c r="AC2" t="n">
-        <v>1475.526725095693</v>
+        <v>1910.390689386483</v>
       </c>
       <c r="AD2" t="n">
-        <v>1192189.897899111</v>
+        <v>1543549.460806532</v>
       </c>
       <c r="AE2" t="n">
-        <v>1631206.814011841</v>
+        <v>2111952.468871691</v>
       </c>
       <c r="AF2" t="n">
         <v>2.325815030342964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1475526.725095693</v>
+        <v>1910390.689386483</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>892.3411412387122</v>
+        <v>1165.564869943039</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.940516755553</v>
+        <v>1594.77727614901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1104.41566743718</v>
+        <v>1442.573971197313</v>
       </c>
       <c r="AD3" t="n">
-        <v>892341.1412387122</v>
+        <v>1165564.869943039</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220940.516755552</v>
+        <v>1594777.27614901</v>
       </c>
       <c r="AF3" t="n">
         <v>2.944986370299082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.40104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1104415.66743718</v>
+        <v>1442573.971197313</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>808.4114892642593</v>
+        <v>1062.109548015044</v>
       </c>
       <c r="AB4" t="n">
-        <v>1106.104264209185</v>
+        <v>1453.225140560444</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000.539225660145</v>
+        <v>1314.531372759649</v>
       </c>
       <c r="AD4" t="n">
-        <v>808411.4892642593</v>
+        <v>1062109.548015044</v>
       </c>
       <c r="AE4" t="n">
-        <v>1106104.264209185</v>
+        <v>1453225.140560444</v>
       </c>
       <c r="AF4" t="n">
         <v>3.180029053259668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000539.225660145</v>
+        <v>1314531.372759649</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>759.9133792968855</v>
+        <v>1003.848603070899</v>
       </c>
       <c r="AB5" t="n">
-        <v>1039.747010566218</v>
+        <v>1373.509945396376</v>
       </c>
       <c r="AC5" t="n">
-        <v>940.5150151718715</v>
+        <v>1242.424083941061</v>
       </c>
       <c r="AD5" t="n">
-        <v>759913.3792968856</v>
+        <v>1003848.603070899</v>
       </c>
       <c r="AE5" t="n">
-        <v>1039747.010566217</v>
+        <v>1373509.945396376</v>
       </c>
       <c r="AF5" t="n">
         <v>3.320931604039704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.25520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>940515.0151718715</v>
+        <v>1242424.083941061</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>730.9886092536212</v>
+        <v>965.1951634696447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000.170864122229</v>
+        <v>1320.622604064536</v>
       </c>
       <c r="AC6" t="n">
-        <v>904.7159605990274</v>
+        <v>1194.584236238082</v>
       </c>
       <c r="AD6" t="n">
-        <v>730988.6092536212</v>
+        <v>965195.1634696447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000170.864122229</v>
+        <v>1320622.604064536</v>
       </c>
       <c r="AF6" t="n">
         <v>3.406149958987456e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>904715.9605990275</v>
+        <v>1194584.236238082</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>709.2189420695177</v>
+        <v>943.3913308667603</v>
       </c>
       <c r="AB7" t="n">
-        <v>970.3846450710053</v>
+        <v>1290.789638380064</v>
       </c>
       <c r="AC7" t="n">
-        <v>877.7724964888311</v>
+        <v>1167.598486927706</v>
       </c>
       <c r="AD7" t="n">
-        <v>709218.9420695177</v>
+        <v>943391.3308667603</v>
       </c>
       <c r="AE7" t="n">
-        <v>970384.6450710052</v>
+        <v>1290789.638380064</v>
       </c>
       <c r="AF7" t="n">
         <v>3.449282137195668e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.45833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>877772.496488831</v>
+        <v>1167598.486927706</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>706.0762436541539</v>
+        <v>940.2486324513965</v>
       </c>
       <c r="AB8" t="n">
-        <v>966.0846664530355</v>
+        <v>1286.489659762094</v>
       </c>
       <c r="AC8" t="n">
-        <v>873.8829017951024</v>
+        <v>1163.708892233977</v>
       </c>
       <c r="AD8" t="n">
-        <v>706076.2436541539</v>
+        <v>940248.6324513964</v>
       </c>
       <c r="AE8" t="n">
-        <v>966084.6664530355</v>
+        <v>1286489.659762094</v>
       </c>
       <c r="AF8" t="n">
         <v>3.455065910022447e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.38020833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>873882.9017951024</v>
+        <v>1163708.892233977</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>707.2123603050711</v>
+        <v>941.3847491023138</v>
       </c>
       <c r="AB9" t="n">
-        <v>967.6391513767497</v>
+        <v>1288.044144685808</v>
       </c>
       <c r="AC9" t="n">
-        <v>875.2890288594307</v>
+        <v>1165.115019298305</v>
       </c>
       <c r="AD9" t="n">
-        <v>707212.3603050711</v>
+        <v>941384.7491023138</v>
       </c>
       <c r="AE9" t="n">
-        <v>967639.1513767497</v>
+        <v>1288044.144685808</v>
       </c>
       <c r="AF9" t="n">
         <v>3.45475826253166e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.38020833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>875289.0288594307</v>
+        <v>1165115.019298305</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.5353020318174</v>
+        <v>1089.986592503102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1126.797332053288</v>
+        <v>1491.367742677409</v>
       </c>
       <c r="AC2" t="n">
-        <v>1019.25737615211</v>
+        <v>1349.033698464049</v>
       </c>
       <c r="AD2" t="n">
-        <v>823535.3020318174</v>
+        <v>1089986.592503102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1126797.332053288</v>
+        <v>1491367.742677409</v>
       </c>
       <c r="AF2" t="n">
         <v>3.605164046130089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1019257.37615211</v>
+        <v>1349033.698464049</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.2244000698925</v>
+        <v>912.1496189624824</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.5035688568843</v>
+        <v>1248.043349865576</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.4611229870732</v>
+        <v>1128.931844194248</v>
       </c>
       <c r="AD3" t="n">
-        <v>674224.4000698924</v>
+        <v>912149.6189624823</v>
       </c>
       <c r="AE3" t="n">
-        <v>922503.5688568843</v>
+        <v>1248043.349865576</v>
       </c>
       <c r="AF3" t="n">
         <v>4.172862324968574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>834461.1229870731</v>
+        <v>1128931.844194248</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.1837626557304</v>
+        <v>861.0705085997655</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.6641552136675</v>
+        <v>1178.154657615998</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.8056814529614</v>
+        <v>1065.713230643574</v>
       </c>
       <c r="AD4" t="n">
-        <v>642183.7626557305</v>
+        <v>861070.5085997655</v>
       </c>
       <c r="AE4" t="n">
-        <v>878664.1552136675</v>
+        <v>1178154.657615998</v>
       </c>
       <c r="AF4" t="n">
         <v>4.328267907042182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>794805.6814529614</v>
+        <v>1065713.230643574</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.1834990751657</v>
+        <v>861.0702450192007</v>
       </c>
       <c r="AB5" t="n">
-        <v>878.6637945711105</v>
+        <v>1178.154296973441</v>
       </c>
       <c r="AC5" t="n">
-        <v>794.8053552296238</v>
+        <v>1065.712904420237</v>
       </c>
       <c r="AD5" t="n">
-        <v>642183.4990751657</v>
+        <v>861070.2450192007</v>
       </c>
       <c r="AE5" t="n">
-        <v>878663.7945711105</v>
+        <v>1178154.296973441</v>
       </c>
       <c r="AF5" t="n">
         <v>4.333790711538382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>794805.3552296238</v>
+        <v>1065712.904420237</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>705.8828358471114</v>
+        <v>950.2056182054432</v>
       </c>
       <c r="AB2" t="n">
-        <v>965.8200373588897</v>
+        <v>1300.11324694199</v>
       </c>
       <c r="AC2" t="n">
-        <v>873.6435285302924</v>
+        <v>1176.032263374248</v>
       </c>
       <c r="AD2" t="n">
-        <v>705882.8358471114</v>
+        <v>950205.6182054433</v>
       </c>
       <c r="AE2" t="n">
-        <v>965820.0373588897</v>
+        <v>1300113.24694199</v>
       </c>
       <c r="AF2" t="n">
         <v>4.448286480636531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.06770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>873643.5285302924</v>
+        <v>1176032.263374248</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.9213955177477</v>
+        <v>841.5096309464905</v>
       </c>
       <c r="AB3" t="n">
-        <v>842.7308258816122</v>
+        <v>1151.39060184577</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.301778639613</v>
+        <v>1041.503498792468</v>
       </c>
       <c r="AD3" t="n">
-        <v>615921.3955177476</v>
+        <v>841509.6309464904</v>
       </c>
       <c r="AE3" t="n">
-        <v>842730.8258816121</v>
+        <v>1151390.60184577</v>
       </c>
       <c r="AF3" t="n">
         <v>4.877406879937167e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>762301.778639613</v>
+        <v>1041503.498792468</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>616.093971085057</v>
+        <v>841.5807212873145</v>
       </c>
       <c r="AB4" t="n">
-        <v>842.9669513863015</v>
+        <v>1151.48787078637</v>
       </c>
       <c r="AC4" t="n">
-        <v>762.5153686575391</v>
+        <v>1041.591484521895</v>
       </c>
       <c r="AD4" t="n">
-        <v>616093.971085057</v>
+        <v>841580.7212873145</v>
       </c>
       <c r="AE4" t="n">
-        <v>842966.9513863015</v>
+        <v>1151487.87078637</v>
       </c>
       <c r="AF4" t="n">
         <v>4.885692741305777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>762515.368657539</v>
+        <v>1041591.484521895</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.852352509821</v>
+        <v>856.3658873058627</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.5823111272954</v>
+        <v>1171.717587208437</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.1176133636034</v>
+        <v>1059.890505201226</v>
       </c>
       <c r="AD2" t="n">
-        <v>623852.352509821</v>
+        <v>856365.8873058626</v>
       </c>
       <c r="AE2" t="n">
-        <v>853582.3111272954</v>
+        <v>1171717.587208437</v>
       </c>
       <c r="AF2" t="n">
         <v>5.280752222652564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.30729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>772117.6133636034</v>
+        <v>1059890.505201226</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.6626425740855</v>
+        <v>828.9043753712555</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.6943475198555</v>
+        <v>1134.143535063106</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.6049220723812</v>
+        <v>1025.902467857131</v>
       </c>
       <c r="AD3" t="n">
-        <v>605662.6425740855</v>
+        <v>828904.3753712554</v>
       </c>
       <c r="AE3" t="n">
-        <v>828694.3475198555</v>
+        <v>1134143.535063106</v>
       </c>
       <c r="AF3" t="n">
         <v>5.399763091300042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.23958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>749604.9220723812</v>
+        <v>1025902.467857131</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.4890663814541</v>
+        <v>834.515502719586</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.5108999803653</v>
+        <v>1141.82092704656</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.4888070699928</v>
+        <v>1032.847140324971</v>
       </c>
       <c r="AD2" t="n">
-        <v>597489.0663814541</v>
+        <v>834515.502719586</v>
       </c>
       <c r="AE2" t="n">
-        <v>817510.8999803653</v>
+        <v>1141820.92704656</v>
       </c>
       <c r="AF2" t="n">
         <v>6.643953396176416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>739488.8070699929</v>
+        <v>1032847.140324971</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>955.5164623002114</v>
+        <v>1253.614302613678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1307.379778130358</v>
+        <v>1715.250394395796</v>
       </c>
       <c r="AC2" t="n">
-        <v>1182.605287024638</v>
+        <v>1551.549304123709</v>
       </c>
       <c r="AD2" t="n">
-        <v>955516.4623002114</v>
+        <v>1253614.302613678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1307379.778130358</v>
+        <v>1715250.394395796</v>
       </c>
       <c r="AF2" t="n">
         <v>3.01556693258773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1182605.287024638</v>
+        <v>1551549.304123709</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>759.7331140462276</v>
+        <v>1009.728778398609</v>
       </c>
       <c r="AB3" t="n">
-        <v>1039.500363697525</v>
+        <v>1381.555460694774</v>
       </c>
       <c r="AC3" t="n">
-        <v>940.2919079341565</v>
+        <v>1249.701746551332</v>
       </c>
       <c r="AD3" t="n">
-        <v>759733.1140462275</v>
+        <v>1009728.778398609</v>
       </c>
       <c r="AE3" t="n">
-        <v>1039500.363697526</v>
+        <v>1381555.460694774</v>
       </c>
       <c r="AF3" t="n">
         <v>3.604552461101229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.28645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>940291.9079341565</v>
+        <v>1249701.746551332</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>695.0814316885429</v>
+        <v>925.8703910752705</v>
       </c>
       <c r="AB4" t="n">
-        <v>951.0410796648164</v>
+        <v>1266.816715588037</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.2750538161442</v>
+        <v>1145.913506240741</v>
       </c>
       <c r="AD4" t="n">
-        <v>695081.4316885429</v>
+        <v>925870.3910752705</v>
       </c>
       <c r="AE4" t="n">
-        <v>951041.0796648164</v>
+        <v>1266816.715588037</v>
       </c>
       <c r="AF4" t="n">
         <v>3.832755645314365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>860275.0538161442</v>
+        <v>1145913.506240741</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>668.4369312664503</v>
+        <v>899.191725234397</v>
       </c>
       <c r="AB5" t="n">
-        <v>914.5848987149114</v>
+        <v>1230.313788004884</v>
       </c>
       <c r="AC5" t="n">
-        <v>827.2981996095268</v>
+        <v>1112.894366833944</v>
       </c>
       <c r="AD5" t="n">
-        <v>668436.9312664503</v>
+        <v>899191.725234397</v>
       </c>
       <c r="AE5" t="n">
-        <v>914584.8987149114</v>
+        <v>1230313.788004884</v>
       </c>
       <c r="AF5" t="n">
         <v>3.920654584521804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.22395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>827298.1996095268</v>
+        <v>1112894.366833944</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>667.6697671628664</v>
+        <v>888.8724567761575</v>
       </c>
       <c r="AB6" t="n">
-        <v>913.5352309434962</v>
+        <v>1216.194509646327</v>
       </c>
       <c r="AC6" t="n">
-        <v>826.3487106569975</v>
+        <v>1100.122612585395</v>
       </c>
       <c r="AD6" t="n">
-        <v>667669.7671628664</v>
+        <v>888872.4567761575</v>
       </c>
       <c r="AE6" t="n">
-        <v>913535.2309434962</v>
+        <v>1216194.509646327</v>
       </c>
       <c r="AF6" t="n">
         <v>3.92740533440551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>826348.7106569975</v>
+        <v>1100122.612585396</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1148.041173760714</v>
+        <v>1478.974867494866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1570.800581941439</v>
+        <v>2023.598661472674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1420.885579033411</v>
+        <v>1830.469245360281</v>
       </c>
       <c r="AD2" t="n">
-        <v>1148041.173760714</v>
+        <v>1478974.867494866</v>
       </c>
       <c r="AE2" t="n">
-        <v>1570800.581941439</v>
+        <v>2023598.661472674</v>
       </c>
       <c r="AF2" t="n">
         <v>2.443629389781296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1420885.579033411</v>
+        <v>1830469.245360281</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>863.7904416746553</v>
+        <v>1136.339317039972</v>
       </c>
       <c r="AB3" t="n">
-        <v>1181.876190044041</v>
+        <v>1554.789585326635</v>
       </c>
       <c r="AC3" t="n">
-        <v>1069.079585239888</v>
+        <v>1406.402649463949</v>
       </c>
       <c r="AD3" t="n">
-        <v>863790.4416746553</v>
+        <v>1136339.317039971</v>
       </c>
       <c r="AE3" t="n">
-        <v>1181876.190044041</v>
+        <v>1554789.585326636</v>
       </c>
       <c r="AF3" t="n">
         <v>3.058592892861003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1069079.585239888</v>
+        <v>1406402.649463949</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>781.2812852201988</v>
+        <v>1034.357502999595</v>
       </c>
       <c r="AB4" t="n">
-        <v>1068.983522135972</v>
+        <v>1415.253568236489</v>
       </c>
       <c r="AC4" t="n">
-        <v>966.9612351111108</v>
+        <v>1280.183754004856</v>
       </c>
       <c r="AD4" t="n">
-        <v>781281.2852201988</v>
+        <v>1034357.502999595</v>
       </c>
       <c r="AE4" t="n">
-        <v>1068983.522135973</v>
+        <v>1415253.568236489</v>
       </c>
       <c r="AF4" t="n">
         <v>3.295610731403535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>966961.2351111108</v>
+        <v>1280183.754004856</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>736.5559484917727</v>
+        <v>979.8958374782093</v>
       </c>
       <c r="AB5" t="n">
-        <v>1007.788343281541</v>
+        <v>1340.736714791019</v>
       </c>
       <c r="AC5" t="n">
-        <v>911.6064382385734</v>
+        <v>1212.778684467161</v>
       </c>
       <c r="AD5" t="n">
-        <v>736555.9484917728</v>
+        <v>979895.8374782093</v>
       </c>
       <c r="AE5" t="n">
-        <v>1007788.343281541</v>
+        <v>1340736.714791019</v>
       </c>
       <c r="AF5" t="n">
         <v>3.422389177278235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>911606.4382385735</v>
+        <v>1212778.684467161</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>707.1418244547459</v>
+        <v>940.7795500670034</v>
       </c>
       <c r="AB6" t="n">
-        <v>967.5426411145124</v>
+        <v>1287.216084666199</v>
       </c>
       <c r="AC6" t="n">
-        <v>875.2017294011683</v>
+        <v>1164.365988164778</v>
       </c>
       <c r="AD6" t="n">
-        <v>707141.8244547459</v>
+        <v>940779.5500670034</v>
       </c>
       <c r="AE6" t="n">
-        <v>967542.6411145125</v>
+        <v>1287216.084666199</v>
       </c>
       <c r="AF6" t="n">
         <v>3.508354522273629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>875201.7294011683</v>
+        <v>1164365.988164778</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>698.4516358541981</v>
+        <v>931.9878762399702</v>
       </c>
       <c r="AB7" t="n">
-        <v>955.6523416871798</v>
+        <v>1275.186928674777</v>
       </c>
       <c r="AC7" t="n">
-        <v>864.4462234630402</v>
+        <v>1153.484877938151</v>
       </c>
       <c r="AD7" t="n">
-        <v>698451.6358541981</v>
+        <v>931987.8762399702</v>
       </c>
       <c r="AE7" t="n">
-        <v>955652.3416871799</v>
+        <v>1275186.928674777</v>
       </c>
       <c r="AF7" t="n">
         <v>3.537030599316716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.30208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>864446.2234630402</v>
+        <v>1153484.877938151</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>699.3830334944814</v>
+        <v>932.9192738802535</v>
       </c>
       <c r="AB8" t="n">
-        <v>956.9267210289794</v>
+        <v>1276.461308016577</v>
       </c>
       <c r="AC8" t="n">
-        <v>865.5989778290613</v>
+        <v>1154.637632304172</v>
       </c>
       <c r="AD8" t="n">
-        <v>699383.0334944815</v>
+        <v>932919.2738802535</v>
       </c>
       <c r="AE8" t="n">
-        <v>956926.7210289794</v>
+        <v>1276461.308016577</v>
       </c>
       <c r="AF8" t="n">
         <v>3.537282143852182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.30208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>865598.9778290612</v>
+        <v>1154637.632304172</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.1697894061693</v>
+        <v>880.8990461963244</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.4896187607524</v>
+        <v>1205.284937528951</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.4611358474816</v>
+        <v>1090.254234719221</v>
       </c>
       <c r="AD2" t="n">
-        <v>628169.7894061693</v>
+        <v>880899.0461963244</v>
       </c>
       <c r="AE2" t="n">
-        <v>859489.6187607524</v>
+        <v>1205284.937528951</v>
       </c>
       <c r="AF2" t="n">
         <v>7.198502249312938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.18229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>777461.1358474817</v>
+        <v>1090254.234719221</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>741.3109424949387</v>
+        <v>996.1392040835649</v>
       </c>
       <c r="AB2" t="n">
-        <v>1014.294335852203</v>
+        <v>1362.961605587226</v>
       </c>
       <c r="AC2" t="n">
-        <v>917.4915080095092</v>
+        <v>1232.882462878608</v>
       </c>
       <c r="AD2" t="n">
-        <v>741310.9424949386</v>
+        <v>996139.2040835649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1014294.335852203</v>
+        <v>1362961.605587226</v>
       </c>
       <c r="AF2" t="n">
         <v>4.132767969404409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>917491.5080095092</v>
+        <v>1232882.462878608</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.514889212986</v>
+        <v>854.1153124465538</v>
       </c>
       <c r="AB3" t="n">
-        <v>858.5935554242812</v>
+        <v>1168.638251397576</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.6505915382106</v>
+        <v>1057.105056878278</v>
       </c>
       <c r="AD3" t="n">
-        <v>627514.889212986</v>
+        <v>854115.3124465538</v>
       </c>
       <c r="AE3" t="n">
-        <v>858593.5554242813</v>
+        <v>1168638.251397576</v>
       </c>
       <c r="AF3" t="n">
         <v>4.651100195557648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>776650.5915382106</v>
+        <v>1057105.056878278</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.6510153449323</v>
+        <v>852.1499533520148</v>
       </c>
       <c r="AB4" t="n">
-        <v>856.0433209696982</v>
+        <v>1165.949160378904</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.3437478806966</v>
+        <v>1054.672608932265</v>
       </c>
       <c r="AD4" t="n">
-        <v>625651.0153449322</v>
+        <v>852149.9533520148</v>
       </c>
       <c r="AE4" t="n">
-        <v>856043.3209696983</v>
+        <v>1165949.160378904</v>
       </c>
       <c r="AF4" t="n">
         <v>4.666903007330613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>774343.7478806966</v>
+        <v>1054672.608932265</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>860.6894784069932</v>
+        <v>1147.235420624316</v>
       </c>
       <c r="AB2" t="n">
-        <v>1177.633315296381</v>
+        <v>1569.6981149529</v>
       </c>
       <c r="AC2" t="n">
-        <v>1065.241644503233</v>
+        <v>1419.888329946936</v>
       </c>
       <c r="AD2" t="n">
-        <v>860689.4784069932</v>
+        <v>1147235.420624316</v>
       </c>
       <c r="AE2" t="n">
-        <v>1177633.315296381</v>
+        <v>1569698.1149529</v>
       </c>
       <c r="AF2" t="n">
         <v>3.384696113035349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.97916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1065241.644503233</v>
+        <v>1419888.329946936</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.1080077022898</v>
+        <v>940.947541011564</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.6551509574805</v>
+        <v>1287.445937287784</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.9715716380703</v>
+        <v>1164.573903974759</v>
       </c>
       <c r="AD3" t="n">
-        <v>702108.0077022898</v>
+        <v>940947.541011564</v>
       </c>
       <c r="AE3" t="n">
-        <v>960655.1509574805</v>
+        <v>1287445.937287784</v>
       </c>
       <c r="AF3" t="n">
         <v>3.963031677052088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>868971.5716380703</v>
+        <v>1164573.903974759</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.6464695051876</v>
+        <v>882.8295696388541</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.3479364240304</v>
+        <v>1207.926364871703</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.9926245969325</v>
+        <v>1092.643567943648</v>
       </c>
       <c r="AD4" t="n">
-        <v>653646.4695051876</v>
+        <v>882829.5696388541</v>
       </c>
       <c r="AE4" t="n">
-        <v>894347.9364240305</v>
+        <v>1207926.364871703</v>
       </c>
       <c r="AF4" t="n">
         <v>4.163734632422221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>808992.6245969326</v>
+        <v>1092643.567943648</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.6593721555529</v>
+        <v>870.3558551776589</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.2608580488258</v>
+        <v>1190.859278444452</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.2956112456068</v>
+        <v>1077.205340291207</v>
       </c>
       <c r="AD5" t="n">
-        <v>650659.3721555528</v>
+        <v>870355.8551776588</v>
       </c>
       <c r="AE5" t="n">
-        <v>890260.8580488258</v>
+        <v>1190859.278444452</v>
       </c>
       <c r="AF5" t="n">
         <v>4.182768086123374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.11979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>805295.6112456068</v>
+        <v>1077205.340291207</v>
       </c>
     </row>
   </sheetData>
